--- a/spacec_active/XLS/Template/test.xlsx
+++ b/spacec_active/XLS/Template/test.xlsx
@@ -1,60 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24240" windowHeight="12525"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Kids Dresses</t>
-  </si>
-  <si>
-    <t>Toys</t>
-  </si>
-  <si>
-    <t>Snacks</t>
-  </si>
-  <si>
-    <t>Stationaries</t>
-  </si>
-  <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fancy party dreasses for kids</t>
-  </si>
-  <si>
-    <t>Mechanical and battery toys</t>
-  </si>
-  <si>
-    <t>Creamy cakes and sweets</t>
-  </si>
-  <si>
-    <t>Books and notebooks, craft papers</t>
-  </si>
-  <si>
-    <t>First aid tools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -81,17 +44,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -170,6 +130,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,6 +165,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -238,20 +200,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -373,67 +331,143 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>activity_name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>activity_level</v>
+      </c>
+      <c r="C1" t="str">
+        <v>activity_dev_domain</v>
+      </c>
+      <c r="D1" t="str">
+        <v xml:space="preserve">	activity_objectives</v>
+      </c>
+      <c r="E1" t="str">
+        <v xml:space="preserve">	activity_key_dev</v>
+      </c>
+      <c r="F1" t="str">
+        <v>activity_material</v>
+      </c>
+      <c r="G1" t="str">
+        <v xml:space="preserve">	activity_assessment</v>
+      </c>
+      <c r="H1" t="str">
+        <v>activity_process</v>
+      </c>
+      <c r="I1" t="str">
+        <v xml:space="preserve">	activity_instructions</v>
+      </c>
+      <c r="J1" t="str">
+        <v>status</v>
+      </c>
+      <c r="K1" t="str">
+        <v xml:space="preserve">	activity_date</v>
+      </c>
+      <c r="L1" t="str">
+        <v xml:space="preserve">	playlist_name</v>
+      </c>
+      <c r="M1" t="str">
+        <v xml:space="preserve">	playlist_descr</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="2">
+      <c r="A2" t="str">
+        <v>test1</v>
+      </c>
+      <c r="B2" t="str">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="C2" t="str">
+        <v>excel</v>
+      </c>
+      <c r="D2" t="str">
+        <v>excel</v>
+      </c>
+      <c r="E2" t="str">
+        <v>excek</v>
+      </c>
+      <c r="F2" t="str">
+        <v>excxcel</v>
+      </c>
+      <c r="G2" t="str">
+        <v>excel</v>
+      </c>
+      <c r="H2" t="str">
+        <v>excel</v>
+      </c>
+      <c r="I2" t="str">
+        <v>ecxecl</v>
+      </c>
+      <c r="J2" t="str">
+        <v>free</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2022-03-22</v>
+      </c>
+      <c r="L2" t="str">
+        <v>excel</v>
+      </c>
+      <c r="M2" t="str">
+        <v>excel</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:M2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -443,9 +477,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -455,8 +490,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
 </worksheet>
 </file>